--- a/orbital_velocity.xlsx
+++ b/orbital_velocity.xlsx
@@ -595,15 +595,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -620,7 +620,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8712200" y="50800"/>
+          <a:off x="8737600" y="127000"/>
           <a:ext cx="6959600" cy="7429500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1067,7 +1067,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1390,6 +1393,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
